--- a/Data_frame/balancos_definitivos/RRRP3.xlsx
+++ b/Data_frame/balancos_definitivos/RRRP3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -550,6 +565,15 @@
       <c r="N2" t="n">
         <v>19276056.576</v>
       </c>
+      <c r="O2" t="n">
+        <v>20119857.152</v>
+      </c>
+      <c r="P2" t="n">
+        <v>20232347.648</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>21740724.224</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -596,6 +620,15 @@
       <c r="N3" t="n">
         <v>2555695.104</v>
       </c>
+      <c r="O3" t="n">
+        <v>3965496.064</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3556328.96</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4119134.976</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -642,6 +675,15 @@
       <c r="N4" t="n">
         <v>781980.032</v>
       </c>
+      <c r="O4" t="n">
+        <v>1754105.984</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1019854.976</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1533334.016</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -688,6 +730,15 @@
       <c r="N5" t="n">
         <v>14515</v>
       </c>
+      <c r="O5" t="n">
+        <v>154559.008</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9123</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>50630</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +785,15 @@
       <c r="N6" t="n">
         <v>533087.008</v>
       </c>
+      <c r="O6" t="n">
+        <v>522022.016</v>
+      </c>
+      <c r="P6" t="n">
+        <v>496428.992</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>459680.992</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -780,6 +840,15 @@
       <c r="N7" t="n">
         <v>654654.0159999999</v>
       </c>
+      <c r="O7" t="n">
+        <v>814819.008</v>
+      </c>
+      <c r="P7" t="n">
+        <v>937560</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>799728</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -826,6 +895,15 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -872,6 +950,15 @@
       <c r="N9" t="n">
         <v>149340.992</v>
       </c>
+      <c r="O9" t="n">
+        <v>159898</v>
+      </c>
+      <c r="P9" t="n">
+        <v>277356</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>370311.008</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -918,6 +1005,15 @@
       <c r="N10" t="n">
         <v>124453</v>
       </c>
+      <c r="O10" t="n">
+        <v>164556</v>
+      </c>
+      <c r="P10" t="n">
+        <v>173338</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>144159.008</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,6 +1060,15 @@
       <c r="N11" t="n">
         <v>297664.992</v>
       </c>
+      <c r="O11" t="n">
+        <v>395536</v>
+      </c>
+      <c r="P11" t="n">
+        <v>642668.032</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>761292.032</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1010,6 +1115,15 @@
       <c r="N12" t="n">
         <v>3224854.016</v>
       </c>
+      <c r="O12" t="n">
+        <v>2940807.936</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3207396.096</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3759728.896</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1056,6 +1170,15 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1102,6 +1225,15 @@
       <c r="N14" t="n">
         <v>0</v>
       </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1148,6 +1280,15 @@
       <c r="N15" t="n">
         <v>2520499.968</v>
       </c>
+      <c r="O15" t="n">
+        <v>2304150.016</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2498099.968</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2779450.112</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1194,6 +1335,15 @@
       <c r="N16" t="n">
         <v>0</v>
       </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1240,6 +1390,15 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1286,6 +1445,15 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1332,6 +1500,15 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1378,6 +1555,15 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1424,6 +1610,15 @@
       <c r="N21" t="n">
         <v>0</v>
       </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1470,6 +1665,15 @@
       <c r="N22" t="n">
         <v>1600</v>
       </c>
+      <c r="O22" t="n">
+        <v>1600</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1600</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1516,6 +1720,15 @@
       <c r="N23" t="n">
         <v>6372701.184</v>
       </c>
+      <c r="O23" t="n">
+        <v>6149094.912</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6504949.248</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7036836.864</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1562,6 +1775,15 @@
       <c r="N24" t="n">
         <v>7121205.76</v>
       </c>
+      <c r="O24" t="n">
+        <v>7062858.752</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6962073.088</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6823421.952</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1608,6 +1830,15 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1654,6 +1885,15 @@
       <c r="N26" t="n">
         <v>19276056.576</v>
       </c>
+      <c r="O26" t="n">
+        <v>20119857.152</v>
+      </c>
+      <c r="P26" t="n">
+        <v>20232347.648</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>21740724.224</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1700,6 +1940,15 @@
       <c r="N27" t="n">
         <v>2498052.096</v>
       </c>
+      <c r="O27" t="n">
+        <v>3336510.976</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2807996.928</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3010781.952</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1746,6 +1995,15 @@
       <c r="N28" t="n">
         <v>106512</v>
       </c>
+      <c r="O28" t="n">
+        <v>103832</v>
+      </c>
+      <c r="P28" t="n">
+        <v>81940</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>102487</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1792,6 +2050,15 @@
       <c r="N29" t="n">
         <v>644683.008</v>
       </c>
+      <c r="O29" t="n">
+        <v>1315213.952</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1208488.96</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1299776</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1838,6 +2105,15 @@
       <c r="N30" t="n">
         <v>68865</v>
       </c>
+      <c r="O30" t="n">
+        <v>29376</v>
+      </c>
+      <c r="P30" t="n">
+        <v>73543</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>133918</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1884,6 +2160,15 @@
       <c r="N31" t="n">
         <v>613243.008</v>
       </c>
+      <c r="O31" t="n">
+        <v>961353.024</v>
+      </c>
+      <c r="P31" t="n">
+        <v>238903.008</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>309888.992</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1930,6 +2215,15 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
+      <c r="O32" t="n">
+        <v>28293</v>
+      </c>
+      <c r="P32" t="n">
+        <v>28154</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>37408</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1976,6 +2270,15 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
+      <c r="O33" t="n">
+        <v>92565</v>
+      </c>
+      <c r="P33" t="n">
+        <v>92565</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>92565</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2022,6 +2325,15 @@
       <c r="N34" t="n">
         <v>1018321.984</v>
       </c>
+      <c r="O34" t="n">
+        <v>766985.0159999999</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1049496.952</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>993025.0160000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2068,6 +2380,15 @@
       <c r="N35" t="n">
         <v>46427</v>
       </c>
+      <c r="O35" t="n">
+        <v>38893</v>
+      </c>
+      <c r="P35" t="n">
+        <v>34906</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>41714</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2114,6 +2435,15 @@
       <c r="N36" t="n">
         <v>0</v>
       </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2160,6 +2490,15 @@
       <c r="N37" t="n">
         <v>11521941.504</v>
       </c>
+      <c r="O37" t="n">
+        <v>11218256.896</v>
+      </c>
+      <c r="P37" t="n">
+        <v>12067040.256</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>13705895.936</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2206,6 +2545,15 @@
       <c r="N38" t="n">
         <v>7943157.248</v>
       </c>
+      <c r="O38" t="n">
+        <v>8300813.824</v>
+      </c>
+      <c r="P38" t="n">
+        <v>9331755.007999999</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>10802684.928</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2252,6 +2600,15 @@
       <c r="N39" t="n">
         <v>0</v>
       </c>
+      <c r="O39" t="n">
+        <v>16071</v>
+      </c>
+      <c r="P39" t="n">
+        <v>10718</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5357</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2298,6 +2655,15 @@
       <c r="N40" t="n">
         <v>1270712.064</v>
       </c>
+      <c r="O40" t="n">
+        <v>1480519.04</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1255885.952</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1376204.032</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2344,6 +2710,15 @@
       <c r="N41" t="n">
         <v>69840</v>
       </c>
+      <c r="O41" t="n">
+        <v>68288</v>
+      </c>
+      <c r="P41" t="n">
+        <v>66739</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>65103</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2390,6 +2765,15 @@
       <c r="N42" t="n">
         <v>0</v>
       </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2436,6 +2820,15 @@
       <c r="N43" t="n">
         <v>2238232.064</v>
       </c>
+      <c r="O43" t="n">
+        <v>1352564.992</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1401942.016</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1456546.944</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2482,6 +2875,15 @@
       <c r="N44" t="n">
         <v>0</v>
       </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2528,6 +2930,15 @@
       <c r="N45" t="n">
         <v>0</v>
       </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2574,6 +2985,15 @@
       <c r="N46" t="n">
         <v>70655</v>
       </c>
+      <c r="O46" t="n">
+        <v>72653</v>
+      </c>
+      <c r="P46" t="n">
+        <v>78390</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>79980</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2620,6 +3040,15 @@
       <c r="N47" t="n">
         <v>5185407.976</v>
       </c>
+      <c r="O47" t="n">
+        <v>5492436.792</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5278919.952</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4944065.056</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2666,6 +3095,15 @@
       <c r="N48" t="n">
         <v>5055782.912</v>
       </c>
+      <c r="O48" t="n">
+        <v>5055782.912</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5062063.104</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5062422.016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2712,6 +3150,15 @@
       <c r="N49" t="n">
         <v>138892</v>
       </c>
+      <c r="O49" t="n">
+        <v>139471.008</v>
+      </c>
+      <c r="P49" t="n">
+        <v>155296.992</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>184728</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2758,6 +3205,15 @@
       <c r="N50" t="n">
         <v>0</v>
       </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2804,6 +3260,15 @@
       <c r="N51" t="n">
         <v>0</v>
       </c>
+      <c r="O51" t="n">
+        <v>297183.008</v>
+      </c>
+      <c r="P51" t="n">
+        <v>297183.008</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>297183.008</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2850,6 +3315,15 @@
       <c r="N52" t="n">
         <v>-9267</v>
       </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-235623.008</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-600268.032</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2896,6 +3370,15 @@
       <c r="N53" t="n">
         <v>0</v>
       </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2942,6 +3425,15 @@
       <c r="N54" t="n">
         <v>0</v>
       </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2988,6 +3480,15 @@
       <c r="N55" t="n">
         <v>0</v>
       </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3032,6 +3533,15 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3054,6 +3564,9 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3074,6 +3587,9 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3120,6 +3636,15 @@
       <c r="N59" t="n">
         <v>2360259.072</v>
       </c>
+      <c r="O59" t="n">
+        <v>1849449.984</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2007601.024</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2575361.024</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3166,6 +3691,15 @@
       <c r="N60" t="n">
         <v>-1624045.056</v>
       </c>
+      <c r="O60" t="n">
+        <v>-1270588.032</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-1356478.976</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-1843384.96</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3212,6 +3746,15 @@
       <c r="N61" t="n">
         <v>736214.0159999999</v>
       </c>
+      <c r="O61" t="n">
+        <v>578861.952</v>
+      </c>
+      <c r="P61" t="n">
+        <v>651121.9840000001</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>731976</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3258,6 +3801,15 @@
       <c r="N62" t="n">
         <v>0</v>
       </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3304,6 +3856,15 @@
       <c r="N63" t="n">
         <v>-123080</v>
       </c>
+      <c r="O63" t="n">
+        <v>-90168</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-136474</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-133834</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3350,6 +3911,15 @@
       <c r="N64" t="n">
         <v>0</v>
       </c>
+      <c r="O64" t="n">
+        <v>26500</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3396,6 +3966,15 @@
       <c r="N65" t="n">
         <v>0</v>
       </c>
+      <c r="O65" t="n">
+        <v>-48130</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3442,6 +4021,15 @@
       <c r="N66" t="n">
         <v>-5942</v>
       </c>
+      <c r="O66" t="n">
+        <v>44030</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-8182</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-18250</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3488,6 +4076,15 @@
       <c r="N67" t="n">
         <v>0</v>
       </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3534,6 +4131,15 @@
       <c r="N68" t="n">
         <v>-718976</v>
       </c>
+      <c r="O68" t="n">
+        <v>36761.032</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-765401.024</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-1125346.944</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3580,6 +4186,15 @@
       <c r="N69" t="n">
         <v>81102</v>
       </c>
+      <c r="O69" t="n">
+        <v>219843.984</v>
+      </c>
+      <c r="P69" t="n">
+        <v>117388</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>208463.008</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3625,6 +4240,15 @@
       </c>
       <c r="N70" t="n">
         <v>-800078.0159999999</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-183082.992</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-882788.992</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-1333810.048</v>
       </c>
     </row>
     <row r="71">
@@ -3646,6 +4270,9 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3666,6 +4293,9 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3686,6 +4316,9 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3732,6 +4365,15 @@
       <c r="N74" t="n">
         <v>-111784</v>
       </c>
+      <c r="O74" t="n">
+        <v>547854.976</v>
+      </c>
+      <c r="P74" t="n">
+        <v>-258935.008</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-545454.976</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3778,6 +4420,15 @@
       <c r="N75" t="n">
         <v>-107766</v>
       </c>
+      <c r="O75" t="n">
+        <v>-53973</v>
+      </c>
+      <c r="P75" t="n">
+        <v>-73537</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-60373</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3823,6 +4474,15 @@
       </c>
       <c r="N76" t="n">
         <v>142096.992</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-86704.992</v>
+      </c>
+      <c r="P76" t="n">
+        <v>102586</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>242772.992</v>
       </c>
     </row>
     <row r="77">
@@ -3844,6 +4504,9 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3864,6 +4527,9 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3910,6 +4576,15 @@
       <c r="N79" t="n">
         <v>-6035</v>
       </c>
+      <c r="O79" t="n">
+        <v>-8162</v>
+      </c>
+      <c r="P79" t="n">
+        <v>-5737</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>-1590</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3955,6 +4630,15 @@
       </c>
       <c r="N80" t="n">
         <v>-83488</v>
+      </c>
+      <c r="O80" t="n">
+        <v>399014.976</v>
+      </c>
+      <c r="P80" t="n">
+        <v>-235623.008</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-365644.992</v>
       </c>
     </row>
   </sheetData>
